--- a/biology/Histoire de la zoologie et de la botanique/Alexandre_Louis_Lefebvre_de_Cérisy/Alexandre_Louis_Lefebvre_de_Cérisy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexandre_Louis_Lefebvre_de_Cérisy/Alexandre_Louis_Lefebvre_de_Cérisy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexandre_Louis_Lefebvre_de_C%C3%A9risy</t>
+          <t>Alexandre_Louis_Lefebvre_de_Cérisy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Louis Lefebvre de Cérisy est un entomologiste français, né le 14 novembre 1798 à Paris et mort le 2 décembre 1867 à Bouchevilliers, près de Gisors.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexandre_Louis_Lefebvre_de_C%C3%A9risy</t>
+          <t>Alexandre_Louis_Lefebvre_de_Cérisy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il travaille comme clerc chez un avoué. C’est Jean-Baptiste Godart (1775-1825) qui l’initie véritablement à l’entomologie.
 Si tous les ordres d’insectes l’intéressent, c’est principalement son œuvre sur les lépidoptères qui attire l’attention. Se basant sur l’utilisation des nervures des ailes des hyménoptères pour leur classification, il propose en 1842, un système de classification basée sur les nervures des ailes de papillons.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexandre_Louis_Lefebvre_de_C%C3%A9risy</t>
+          <t>Alexandre_Louis_Lefebvre_de_Cérisy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux espèces de papillons portent son nom : Allancastria cerisyi (Godart, 1819) et  Smerinthus cerisyi (Kirby, 1837).
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexandre_Louis_Lefebvre_de_C%C3%A9risy</t>
+          <t>Alexandre_Louis_Lefebvre_de_Cérisy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean Lhoste (1987). Les Entomologistes français. 1750-1950. INRA Éditions : 351 p.</t>
         </is>
